--- a/10/1/Tipo de Cambio 2001 a 2021 - Mensual.xlsx
+++ b/10/1/Tipo de Cambio 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>Serie</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4480,6 +4483,20 @@
         <v>730</v>
       </c>
     </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242">
+        <v>775</v>
+      </c>
+      <c r="C242">
+        <v>755</v>
+      </c>
+      <c r="D242">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/Tipo de Cambio 2001 a 2021 - Mensual.xlsx
+++ b/10/1/Tipo de Cambio 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>Serie</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4497,6 +4500,20 @@
         <v>750</v>
       </c>
     </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243">
+        <v>780</v>
+      </c>
+      <c r="C243">
+        <v>770</v>
+      </c>
+      <c r="D243">
+        <v>760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/Tipo de Cambio 2001 a 2021 - Mensual.xlsx
+++ b/10/1/Tipo de Cambio 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>Serie</t>
   </si>
@@ -752,6 +752,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4514,6 +4517,20 @@
         <v>760</v>
       </c>
     </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244">
+        <v>813</v>
+      </c>
+      <c r="C244">
+        <v>800</v>
+      </c>
+      <c r="D244">
+        <v>790</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
